--- a/biology/Zoologie/Anthias_retourné/Anthias_retourné.xlsx
+++ b/biology/Zoologie/Anthias_retourné/Anthias_retourné.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anthias_retourn%C3%A9</t>
+          <t>Anthias_retourné</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Odontanthias borbonius
 L'Anthias retourné (Odontanthias borbonius) est une espèce de poissons perciformes de la famille des Serranidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anthias_retourn%C3%A9</t>
+          <t>Anthias_retourné</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le poisson Odontanthias borbonius est un anthias dont la répartition géographique est très vaste, puisqu'il occupe tout la zone nord-équatoriale de l'Indo-Pacifique, depuis l'Afrique du Sud au point le plus au sud-est jusqu'au Japon pour le plus au nord-ouest. 
 Il est également présent dans toute l'Indonésie, l'Australie ouest, etc. Toutefois, provenant d'eaux très profondes (70 à 300 mètres), les mâles solitaires évoluent tous dans la zone en dessous de 100 mètres) ; ils sont rarement visibles.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anthias_retourn%C3%A9</t>
+          <t>Anthias_retourné</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Vie sociale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les anthias vivent souvent, ventre vers le haut, sous des surplombs, cachant ainsi leurs plus belles couleurs ; cela leur vaut le nom commun d'Anthias retournés. De fait, on ne les voit pas fréquemment dans le commerce aquariophile. 
 En journée, ils restent discrets, fuyant la lumière vive.
